--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Epha4</t>
+  </si>
+  <si>
+    <t>Efnb1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Epha4</t>
-  </si>
-  <si>
-    <t>Efnb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="H2">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="I2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="J2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="N2">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="O2">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="P2">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="Q2">
-        <v>76.14544620684623</v>
+        <v>77.13805071541711</v>
       </c>
       <c r="R2">
-        <v>685.309015861616</v>
+        <v>694.2424564387539</v>
       </c>
       <c r="S2">
-        <v>0.1823509020589016</v>
+        <v>0.1840268901927621</v>
       </c>
       <c r="T2">
-        <v>0.1823509020589016</v>
+        <v>0.1840268901927621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="H3">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="I3">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="J3">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.37471499999999</v>
       </c>
       <c r="O3">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="P3">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="Q3">
-        <v>71.53923086691999</v>
+        <v>77.93180473006998</v>
       </c>
       <c r="R3">
-        <v>643.8530778022799</v>
+        <v>701.3862425706299</v>
       </c>
       <c r="S3">
-        <v>0.1713200714031666</v>
+        <v>0.1859205351778226</v>
       </c>
       <c r="T3">
-        <v>0.1713200714031666</v>
+        <v>0.1859205351778226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="H4">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="I4">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="J4">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="N4">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="O4">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="P4">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="Q4">
-        <v>2.494561711509334</v>
+        <v>2.251021340645555</v>
       </c>
       <c r="R4">
-        <v>22.451055403584</v>
+        <v>20.25919206581</v>
       </c>
       <c r="S4">
-        <v>0.005973903903585318</v>
+        <v>0.005370222001134268</v>
       </c>
       <c r="T4">
-        <v>0.005973903903585317</v>
+        <v>0.005370222001134267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="H5">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="I5">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="J5">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="N5">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="O5">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="P5">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="Q5">
-        <v>11.19278003293067</v>
+        <v>15.45502135722844</v>
       </c>
       <c r="R5">
-        <v>100.735020296376</v>
+        <v>139.095192215056</v>
       </c>
       <c r="S5">
-        <v>0.0268041444002762</v>
+        <v>0.03687077248978282</v>
       </c>
       <c r="T5">
-        <v>0.02680414440027619</v>
+        <v>0.03687077248978281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="H6">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="I6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="J6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="N6">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="O6">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="P6">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="Q6">
-        <v>2.767691538608</v>
+        <v>1.570782764666889</v>
       </c>
       <c r="R6">
-        <v>24.909223847472</v>
+        <v>14.137044882002</v>
       </c>
       <c r="S6">
-        <v>0.006627987277334799</v>
+        <v>0.003747388800586623</v>
       </c>
       <c r="T6">
-        <v>0.006627987277334798</v>
+        <v>0.003747388800586622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>34.723655</v>
       </c>
       <c r="I7">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="J7">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="N7">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="O7">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="P7">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="Q7">
-        <v>112.4170537093544</v>
+        <v>104.5409532603928</v>
       </c>
       <c r="R7">
-        <v>1011.75348338419</v>
+        <v>940.868579343535</v>
       </c>
       <c r="S7">
-        <v>0.2692130937813282</v>
+        <v>0.2494015125851752</v>
       </c>
       <c r="T7">
-        <v>0.2692130937813281</v>
+        <v>0.2494015125851751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>34.723655</v>
       </c>
       <c r="I8">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="J8">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="O8">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="P8">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="Q8">
         <v>105.616684375925</v>
@@ -948,10 +948,10 @@
         <v>950.5501593833249</v>
       </c>
       <c r="S8">
-        <v>0.2529277668963035</v>
+        <v>0.2519678653778498</v>
       </c>
       <c r="T8">
-        <v>0.2529277668963035</v>
+        <v>0.2519678653778497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>34.723655</v>
       </c>
       <c r="I9">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="J9">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="N9">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="O9">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="P9">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="Q9">
-        <v>3.682837147506667</v>
+        <v>3.050685291863889</v>
       </c>
       <c r="R9">
-        <v>33.14553432756</v>
+        <v>27.456167626775</v>
       </c>
       <c r="S9">
-        <v>0.008819551390631841</v>
+        <v>0.007277966217861729</v>
       </c>
       <c r="T9">
-        <v>0.008819551390631843</v>
+        <v>0.007277966217861727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>34.723655</v>
       </c>
       <c r="I10">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="J10">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="N10">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="O10">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="P10">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="Q10">
-        <v>16.52442026146833</v>
+        <v>20.94533956147111</v>
       </c>
       <c r="R10">
-        <v>148.719782353215</v>
+        <v>188.50805605324</v>
       </c>
       <c r="S10">
-        <v>0.03957220150097723</v>
+        <v>0.04996892801646315</v>
       </c>
       <c r="T10">
-        <v>0.03957220150097723</v>
+        <v>0.04996892801646313</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>34.723655</v>
       </c>
       <c r="I11">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="J11">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="N11">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="O11">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="P11">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="Q11">
-        <v>4.08607137847</v>
+        <v>2.128795400717222</v>
       </c>
       <c r="R11">
-        <v>36.77464240623</v>
+        <v>19.159158606455</v>
       </c>
       <c r="S11">
-        <v>0.009785205010382778</v>
+        <v>0.005078629727058265</v>
       </c>
       <c r="T11">
-        <v>0.009785205010382778</v>
+        <v>0.005078629727058265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="H12">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="I12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="J12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="N12">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="O12">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="P12">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="Q12">
-        <v>4.718510225507778</v>
+        <v>0.2406296292913333</v>
       </c>
       <c r="R12">
-        <v>42.46659202956999</v>
+        <v>2.165666663622</v>
       </c>
       <c r="S12">
-        <v>0.01129975118483361</v>
+        <v>0.00057406587223847</v>
       </c>
       <c r="T12">
-        <v>0.01129975118483361</v>
+        <v>0.0005740658722384699</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="H13">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="I13">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="J13">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.37471499999999</v>
       </c>
       <c r="O13">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="P13">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="Q13">
-        <v>4.433076555274999</v>
+        <v>0.2431057190099999</v>
       </c>
       <c r="R13">
-        <v>39.89768899747499</v>
+        <v>2.187951471089999</v>
       </c>
       <c r="S13">
-        <v>0.0106162029250527</v>
+        <v>0.0005799730359085188</v>
       </c>
       <c r="T13">
-        <v>0.0106162029250527</v>
+        <v>0.0005799730359085188</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1275,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="H14">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="I14">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="J14">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="N14">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="O14">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="P14">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="Q14">
-        <v>0.1545806811866667</v>
+        <v>0.007021987536666667</v>
       </c>
       <c r="R14">
-        <v>1.39122613068</v>
+        <v>0.06319788782999999</v>
       </c>
       <c r="S14">
-        <v>0.0003701853237381617</v>
+        <v>1.675223210024453E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003701853237381617</v>
+        <v>1.675223210024453E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="H15">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="I15">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="J15">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="N15">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="O15">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="P15">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="Q15">
-        <v>0.6935837882383333</v>
+        <v>0.04821143424533333</v>
       </c>
       <c r="R15">
-        <v>6.242254094145</v>
+        <v>0.433902908208</v>
       </c>
       <c r="S15">
-        <v>0.001660974302982269</v>
+        <v>0.0001150171703020271</v>
       </c>
       <c r="T15">
-        <v>0.001660974302982269</v>
+        <v>0.000115017170302027</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1399,55 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="H16">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="I16">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="J16">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="N16">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="O16">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="P16">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="Q16">
-        <v>0.17150573641</v>
+        <v>0.004900005520666667</v>
       </c>
       <c r="R16">
-        <v>1.54355162769</v>
+        <v>0.044100049686</v>
       </c>
       <c r="S16">
-        <v>0.0004107169542047788</v>
+        <v>1.168985694521095E-05</v>
       </c>
       <c r="T16">
-        <v>0.0004107169542047787</v>
+        <v>1.168985694521095E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="H17">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="I17">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="J17">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="N17">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="O17">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="P17">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="Q17">
-        <v>0.4353468443731112</v>
+        <v>3.536990010792</v>
       </c>
       <c r="R17">
-        <v>3.918121599358</v>
+        <v>31.832910097128</v>
       </c>
       <c r="S17">
-        <v>0.001042555973265746</v>
+        <v>0.008438134828299781</v>
       </c>
       <c r="T17">
-        <v>0.001042555973265746</v>
+        <v>0.008438134828299781</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="H18">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="I18">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="J18">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.37471499999999</v>
       </c>
       <c r="O18">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="P18">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="Q18">
-        <v>0.409011700085</v>
+        <v>3.573385797239999</v>
       </c>
       <c r="R18">
-        <v>3.681105300765</v>
+        <v>32.16047217516</v>
       </c>
       <c r="S18">
-        <v>0.0009794893349306928</v>
+        <v>0.008524963615571776</v>
       </c>
       <c r="T18">
-        <v>0.0009794893349306926</v>
+        <v>0.008524963615571774</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,55 +1585,55 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.391608</v>
+      </c>
+      <c r="H19">
+        <v>1.174824</v>
+      </c>
+      <c r="I19">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="J19">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.04482366666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.134471</v>
-      </c>
-      <c r="I19">
-        <v>0.002247341686300608</v>
-      </c>
-      <c r="J19">
-        <v>0.002247341686300608</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="N19">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="O19">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="P19">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="Q19">
-        <v>0.01426217355466667</v>
+        <v>0.10321546788</v>
       </c>
       <c r="R19">
-        <v>0.128359561992</v>
+        <v>0.9289392109200001</v>
       </c>
       <c r="S19">
-        <v>3.415463882041376E-05</v>
+        <v>0.000246239325437751</v>
       </c>
       <c r="T19">
-        <v>3.415463882041376E-05</v>
+        <v>0.0002462393254377509</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="H20">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="I20">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="J20">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="N20">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="O20">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="P20">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="Q20">
-        <v>0.06399255254033334</v>
+        <v>0.708654881088</v>
       </c>
       <c r="R20">
-        <v>0.575932972863</v>
+        <v>6.377893929792001</v>
       </c>
       <c r="S20">
-        <v>0.0001532475054264279</v>
+        <v>0.001690625479604993</v>
       </c>
       <c r="T20">
-        <v>0.0001532475054264279</v>
+        <v>0.001690625479604992</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1709,55 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.391608</v>
+      </c>
+      <c r="H21">
+        <v>1.174824</v>
+      </c>
+      <c r="I21">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="J21">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="L21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.04482366666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.134471</v>
-      </c>
-      <c r="I21">
-        <v>0.002247341686300608</v>
-      </c>
-      <c r="J21">
-        <v>0.002247341686300608</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="N21">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="O21">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="P21">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="Q21">
-        <v>0.015823740454</v>
+        <v>0.07202467389600001</v>
       </c>
       <c r="R21">
-        <v>0.142413664086</v>
+        <v>0.6482220650640002</v>
       </c>
       <c r="S21">
-        <v>3.789423385732818E-05</v>
+        <v>0.0001718279970948191</v>
       </c>
       <c r="T21">
-        <v>3.789423385732817E-05</v>
+        <v>0.0001718279970948191</v>
       </c>
     </row>
   </sheetData>
